--- a/Zaoch/11/лаб1,3,4.xlsx
+++ b/Zaoch/11/лаб1,3,4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Desktop\PAS\Zaoch\11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levotskiy\Desktop\PAS\PAS\Zaoch\11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B01AB4-328F-4AFB-B479-F4FBFC336800}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38E424D-43CA-496F-AB38-9D8004109B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{41422B86-A465-485E-A3F6-9BAAF425347B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{41422B86-A465-485E-A3F6-9BAAF425347B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лаба" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,16 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -928,103 +934,103 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1389,8 +1395,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="59" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2173,24 +2179,24 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34" s="142" t="s">
+      <c r="A34" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="143"/>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="135"/>
-      <c r="K34" s="135"/>
-      <c r="L34" s="153"/>
-      <c r="N34" s="134" t="s">
+      <c r="B34" s="145"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="166"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="163"/>
+      <c r="K34" s="163"/>
+      <c r="L34" s="164"/>
+      <c r="N34" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="O34" s="135"/>
+      <c r="O34" s="163"/>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -2210,7 +2216,7 @@
       <c r="C35" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="133"/>
+      <c r="D35" s="155"/>
       <c r="E35" s="94" t="s">
         <v>55</v>
       </c>
@@ -2219,10 +2225,10 @@
       <c r="H35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="140"/>
-      <c r="L35" s="147"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="157"/>
       <c r="N35" s="32"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -2253,7 +2259,7 @@
         <f>B$28/B36</f>
         <v>630</v>
       </c>
-      <c r="D36" s="133"/>
+      <c r="D36" s="155"/>
       <c r="E36" s="82">
         <v>243</v>
       </c>
@@ -2274,8 +2280,8 @@
         <f>F36</f>
         <v>п3</v>
       </c>
-      <c r="K36" s="140"/>
-      <c r="L36" s="147"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="157"/>
       <c r="M36" s="18"/>
       <c r="N36" s="43" t="s">
         <v>60</v>
@@ -2318,7 +2324,7 @@
         <f>C$28/B37</f>
         <v>508</v>
       </c>
-      <c r="D37" s="133"/>
+      <c r="D37" s="155"/>
       <c r="E37" s="82">
         <v>283.33333333333337</v>
       </c>
@@ -2339,8 +2345,8 @@
         <f t="shared" ref="J37:J41" si="9">F37</f>
         <v>п5</v>
       </c>
-      <c r="K37" s="140"/>
-      <c r="L37" s="147"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="157"/>
       <c r="M37" s="18"/>
       <c r="N37" s="43">
         <v>2</v>
@@ -2358,7 +2364,7 @@
       <c r="S37" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="T37" s="164">
+      <c r="T37" s="133">
         <f>C11</f>
         <v>47300</v>
       </c>
@@ -2385,7 +2391,7 @@
         <f>D$28/B38</f>
         <v>243</v>
       </c>
-      <c r="D38" s="133"/>
+      <c r="D38" s="155"/>
       <c r="E38" s="82">
         <v>356</v>
       </c>
@@ -2406,8 +2412,8 @@
         <f t="shared" si="9"/>
         <v>п6</v>
       </c>
-      <c r="K38" s="140"/>
-      <c r="L38" s="147"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="157"/>
       <c r="M38" s="18"/>
       <c r="N38" s="119">
         <v>9</v>
@@ -2425,7 +2431,7 @@
       <c r="S38" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="T38" s="164">
+      <c r="T38" s="133">
         <f>C18</f>
         <v>49920</v>
       </c>
@@ -2452,7 +2458,7 @@
         <f>E$28/B39</f>
         <v>415</v>
       </c>
-      <c r="D39" s="133"/>
+      <c r="D39" s="155"/>
       <c r="E39" s="82">
         <v>415</v>
       </c>
@@ -2473,8 +2479,8 @@
         <f t="shared" si="9"/>
         <v>п4</v>
       </c>
-      <c r="K39" s="140"/>
-      <c r="L39" s="147"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="157"/>
       <c r="M39" s="18"/>
       <c r="N39" s="43">
         <v>16</v>
@@ -2508,7 +2514,7 @@
         <f>F$28/B40</f>
         <v>283.33333333333337</v>
       </c>
-      <c r="D40" s="133"/>
+      <c r="D40" s="155"/>
       <c r="E40" s="82">
         <v>508</v>
       </c>
@@ -2529,8 +2535,8 @@
         <f t="shared" si="9"/>
         <v>п2</v>
       </c>
-      <c r="K40" s="140"/>
-      <c r="L40" s="147"/>
+      <c r="K40" s="156"/>
+      <c r="L40" s="157"/>
       <c r="M40" s="18"/>
       <c r="N40" s="119">
         <v>18</v>
@@ -2564,7 +2570,7 @@
         <f>G$28/B41</f>
         <v>356</v>
       </c>
-      <c r="D41" s="133"/>
+      <c r="D41" s="155"/>
       <c r="E41" s="82">
         <v>630</v>
       </c>
@@ -2585,8 +2591,8 @@
         <f t="shared" si="9"/>
         <v>п1</v>
       </c>
-      <c r="K41" s="140"/>
-      <c r="L41" s="147"/>
+      <c r="K41" s="156"/>
+      <c r="L41" s="157"/>
       <c r="M41" s="18"/>
       <c r="N41" s="119">
         <v>20</v>
@@ -2609,18 +2615,18 @@
       <c r="X41" s="18"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" s="144"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="151"/>
+      <c r="A42" s="154"/>
+      <c r="B42" s="155"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
+      <c r="K42" s="160"/>
+      <c r="L42" s="161"/>
       <c r="M42" s="18"/>
       <c r="N42" s="43">
         <v>49</v>
@@ -2652,15 +2658,15 @@
       <c r="C43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="133"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="151"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="160"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="160"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="160"/>
+      <c r="K43" s="160"/>
+      <c r="L43" s="161"/>
       <c r="M43" s="18"/>
       <c r="N43" s="43">
         <v>49</v>
@@ -2692,7 +2698,7 @@
       <c r="C44" s="101">
         <v>50</v>
       </c>
-      <c r="D44" s="133"/>
+      <c r="D44" s="155"/>
       <c r="E44" s="75" t="s">
         <v>63</v>
       </c>
@@ -2714,7 +2720,7 @@
       <c r="K44" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="L44" s="152"/>
+      <c r="L44" s="162"/>
       <c r="M44" s="18"/>
       <c r="N44" s="43"/>
       <c r="O44" s="18"/>
@@ -2738,7 +2744,7 @@
       <c r="C45" s="101">
         <v>60</v>
       </c>
-      <c r="D45" s="133"/>
+      <c r="D45" s="155"/>
       <c r="E45" s="98">
         <f>A44</f>
         <v>25</v>
@@ -2767,9 +2773,9 @@
         <f>$C$41/$B44</f>
         <v>158.22222222222223</v>
       </c>
-      <c r="L45" s="152"/>
+      <c r="L45" s="162"/>
       <c r="M45" s="18"/>
-      <c r="N45" s="165" t="s">
+      <c r="N45" s="134" t="s">
         <v>84</v>
       </c>
       <c r="O45" s="93" t="s">
@@ -2782,7 +2788,7 @@
         <v>21</v>
       </c>
       <c r="R45" s="18"/>
-      <c r="S45" s="165" t="s">
+      <c r="S45" s="134" t="s">
         <v>85</v>
       </c>
       <c r="T45" s="93" t="s">
@@ -2807,7 +2813,7 @@
       <c r="C46" s="101">
         <v>50</v>
       </c>
-      <c r="D46" s="133"/>
+      <c r="D46" s="155"/>
       <c r="E46" s="79">
         <f t="shared" ref="E46:E47" si="11">A45</f>
         <v>28</v>
@@ -2836,7 +2842,7 @@
         <f t="shared" ref="K46:K47" si="16">$C$41/$B45</f>
         <v>158.22222222222223</v>
       </c>
-      <c r="L46" s="152"/>
+      <c r="L46" s="162"/>
       <c r="M46" s="18"/>
       <c r="N46" s="43">
         <v>2</v>
@@ -2873,10 +2879,10 @@
       <c r="X46" s="18"/>
     </row>
     <row r="47" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="144"/>
-      <c r="B47" s="133"/>
-      <c r="C47" s="133"/>
-      <c r="D47" s="133"/>
+      <c r="A47" s="154"/>
+      <c r="B47" s="155"/>
+      <c r="C47" s="155"/>
+      <c r="D47" s="155"/>
       <c r="E47" s="98">
         <f t="shared" si="11"/>
         <v>49</v>
@@ -2905,7 +2911,7 @@
         <f t="shared" si="16"/>
         <v>284.8</v>
       </c>
-      <c r="L47" s="152"/>
+      <c r="L47" s="162"/>
       <c r="M47" s="18"/>
       <c r="N47" s="119">
         <v>9</v>
@@ -2942,18 +2948,18 @@
       <c r="X47" s="18"/>
     </row>
     <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="144"/>
-      <c r="B48" s="133"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="140"/>
-      <c r="F48" s="140"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="140"/>
-      <c r="J48" s="140"/>
-      <c r="K48" s="140"/>
-      <c r="L48" s="147"/>
+      <c r="A48" s="154"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="155"/>
+      <c r="D48" s="155"/>
+      <c r="E48" s="156"/>
+      <c r="F48" s="156"/>
+      <c r="G48" s="156"/>
+      <c r="H48" s="156"/>
+      <c r="I48" s="156"/>
+      <c r="J48" s="156"/>
+      <c r="K48" s="156"/>
+      <c r="L48" s="157"/>
       <c r="M48" s="18"/>
       <c r="N48" s="43">
         <v>16</v>
@@ -2990,18 +2996,18 @@
       <c r="X48" s="18"/>
     </row>
     <row r="49" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="144"/>
-      <c r="B49" s="133"/>
-      <c r="C49" s="133"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="140"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="147"/>
+      <c r="A49" s="154"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="156"/>
+      <c r="H49" s="156"/>
+      <c r="I49" s="156"/>
+      <c r="J49" s="156"/>
+      <c r="K49" s="156"/>
+      <c r="L49" s="157"/>
       <c r="M49" s="18"/>
       <c r="N49" s="119">
         <v>18</v>
@@ -3038,18 +3044,18 @@
       <c r="X49" s="18"/>
     </row>
     <row r="50" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="144"/>
-      <c r="B50" s="133"/>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="140"/>
-      <c r="J50" s="140"/>
-      <c r="K50" s="140"/>
-      <c r="L50" s="147"/>
+      <c r="A50" s="154"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="155"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="156"/>
+      <c r="K50" s="156"/>
+      <c r="L50" s="157"/>
       <c r="M50" s="18"/>
       <c r="N50" s="119">
         <v>20</v>
@@ -3086,10 +3092,10 @@
       <c r="X50" s="18"/>
     </row>
     <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="144"/>
-      <c r="B51" s="133"/>
-      <c r="C51" s="133"/>
-      <c r="D51" s="133"/>
+      <c r="A51" s="154"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="155"/>
+      <c r="D51" s="155"/>
       <c r="E51" s="75" t="s">
         <v>64</v>
       </c>
@@ -3111,7 +3117,7 @@
       <c r="K51" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="L51" s="147"/>
+      <c r="L51" s="157"/>
       <c r="M51" s="18"/>
       <c r="N51" s="43">
         <v>49</v>
@@ -3148,10 +3154,10 @@
       <c r="X51" s="18"/>
     </row>
     <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="144"/>
-      <c r="B52" s="133"/>
-      <c r="C52" s="133"/>
-      <c r="D52" s="133"/>
+      <c r="A52" s="154"/>
+      <c r="B52" s="155"/>
+      <c r="C52" s="155"/>
+      <c r="D52" s="155"/>
       <c r="E52" s="98">
         <f>A44</f>
         <v>25</v>
@@ -3180,7 +3186,7 @@
         <f t="shared" si="24"/>
         <v>7911.1111111111113</v>
       </c>
-      <c r="L52" s="147"/>
+      <c r="L52" s="157"/>
       <c r="M52" s="18"/>
       <c r="N52" s="32"/>
       <c r="O52" s="18"/>
@@ -3195,10 +3201,10 @@
       <c r="X52" s="18"/>
     </row>
     <row r="53" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="144"/>
-      <c r="B53" s="133"/>
-      <c r="C53" s="133"/>
-      <c r="D53" s="133"/>
+      <c r="A53" s="154"/>
+      <c r="B53" s="155"/>
+      <c r="C53" s="155"/>
+      <c r="D53" s="155"/>
       <c r="E53" s="98">
         <f t="shared" ref="E53:E54" si="25">A45</f>
         <v>28</v>
@@ -3227,7 +3233,7 @@
         <f t="shared" si="26"/>
         <v>9493.3333333333339</v>
       </c>
-      <c r="L53" s="147"/>
+      <c r="L53" s="157"/>
       <c r="M53" s="18"/>
       <c r="N53" s="43"/>
       <c r="O53" s="18"/>
@@ -3242,10 +3248,10 @@
       <c r="X53" s="18"/>
     </row>
     <row r="54" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="144"/>
-      <c r="B54" s="133"/>
-      <c r="C54" s="133"/>
-      <c r="D54" s="133"/>
+      <c r="A54" s="154"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155"/>
       <c r="E54" s="98">
         <f t="shared" si="25"/>
         <v>49</v>
@@ -3274,7 +3280,7 @@
         <f t="shared" si="27"/>
         <v>14240</v>
       </c>
-      <c r="L54" s="147"/>
+      <c r="L54" s="157"/>
       <c r="M54" s="18"/>
       <c r="N54" s="43"/>
       <c r="O54" s="18"/>
@@ -3289,18 +3295,18 @@
       <c r="X54" s="18"/>
     </row>
     <row r="55" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="145"/>
-      <c r="B55" s="146"/>
-      <c r="C55" s="146"/>
-      <c r="D55" s="146"/>
-      <c r="E55" s="149"/>
-      <c r="F55" s="149"/>
-      <c r="G55" s="149"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="149"/>
-      <c r="J55" s="149"/>
-      <c r="K55" s="149"/>
-      <c r="L55" s="148"/>
+      <c r="A55" s="147"/>
+      <c r="B55" s="148"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="159"/>
+      <c r="F55" s="159"/>
+      <c r="G55" s="159"/>
+      <c r="H55" s="159"/>
+      <c r="I55" s="159"/>
+      <c r="J55" s="159"/>
+      <c r="K55" s="159"/>
+      <c r="L55" s="158"/>
       <c r="M55" s="18"/>
       <c r="N55" s="96"/>
       <c r="O55" s="97"/>
@@ -3315,14 +3321,14 @@
       <c r="X55" s="18"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" s="142"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="143"/>
-      <c r="E56" s="143"/>
-      <c r="F56" s="143"/>
-      <c r="G56" s="143"/>
-      <c r="H56" s="156"/>
+      <c r="A56" s="144"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
+      <c r="G56" s="145"/>
+      <c r="H56" s="146"/>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
       <c r="K56" s="18"/>
@@ -3331,49 +3337,49 @@
       <c r="N56" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="O56" s="136" t="s">
+      <c r="O56" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="P56" s="137"/>
+      <c r="P56" s="139"/>
       <c r="Q56" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="R56" s="162" t="s">
+      <c r="R56" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="S56" s="136" t="s">
+      <c r="S56" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="T56" s="137"/>
+      <c r="T56" s="139"/>
       <c r="U56" s="18"/>
       <c r="V56" s="18"/>
       <c r="W56" s="18"/>
       <c r="X56" s="18"/>
     </row>
     <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="145"/>
-      <c r="B57" s="146"/>
-      <c r="C57" s="146"/>
-      <c r="D57" s="146"/>
-      <c r="E57" s="146"/>
-      <c r="F57" s="146"/>
-      <c r="G57" s="146"/>
-      <c r="H57" s="157"/>
+      <c r="A57" s="147"/>
+      <c r="B57" s="148"/>
+      <c r="C57" s="148"/>
+      <c r="D57" s="148"/>
+      <c r="E57" s="148"/>
+      <c r="F57" s="148"/>
+      <c r="G57" s="148"/>
+      <c r="H57" s="149"/>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
       <c r="N57" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="O57" s="138"/>
-      <c r="P57" s="139"/>
+      <c r="O57" s="140"/>
+      <c r="P57" s="141"/>
       <c r="Q57" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="R57" s="163"/>
-      <c r="S57" s="138" t="s">
+      <c r="R57" s="137"/>
+      <c r="S57" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="T57" s="139"/>
+      <c r="T57" s="141"/>
       <c r="U57" s="18"/>
       <c r="V57" s="18"/>
       <c r="W57" s="18"/>
@@ -3383,35 +3389,35 @@
       <c r="A58" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="158" t="s">
+      <c r="B58" s="150" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="159"/>
+      <c r="C58" s="151"/>
       <c r="D58" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="158" t="s">
+      <c r="E58" s="150" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="159"/>
-      <c r="G58" s="158" t="s">
+      <c r="F58" s="151"/>
+      <c r="G58" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="H58" s="159"/>
+      <c r="H58" s="151"/>
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
       <c r="N58" s="104"/>
-      <c r="O58" s="154" t="s">
+      <c r="O58" s="142" t="s">
         <v>88</v>
       </c>
       <c r="P58" s="107" t="s">
         <v>74</v>
       </c>
       <c r="Q58" s="108"/>
-      <c r="R58" s="154" t="s">
+      <c r="R58" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="S58" s="154" t="s">
+      <c r="S58" s="142" t="s">
         <v>78</v>
       </c>
       <c r="T58" s="107" t="s">
@@ -3426,26 +3432,26 @@
       <c r="A59" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="160"/>
-      <c r="C59" s="161"/>
+      <c r="B59" s="152"/>
+      <c r="C59" s="153"/>
       <c r="D59" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="160"/>
-      <c r="F59" s="161"/>
-      <c r="G59" s="160" t="s">
+      <c r="E59" s="152"/>
+      <c r="F59" s="153"/>
+      <c r="G59" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="H59" s="161"/>
+      <c r="H59" s="153"/>
       <c r="I59" s="18"/>
       <c r="N59" s="105"/>
-      <c r="O59" s="155"/>
+      <c r="O59" s="143"/>
       <c r="P59" s="61" t="s">
         <v>75</v>
       </c>
       <c r="Q59" s="109"/>
-      <c r="R59" s="155"/>
-      <c r="S59" s="155"/>
+      <c r="R59" s="143"/>
+      <c r="S59" s="143"/>
       <c r="T59" s="61" t="s">
         <v>79</v>
       </c>
@@ -3456,20 +3462,20 @@
     </row>
     <row r="60" spans="1:24" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="104"/>
-      <c r="B60" s="154" t="s">
+      <c r="B60" s="142" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="107" t="s">
         <v>74</v>
       </c>
       <c r="D60" s="108"/>
-      <c r="E60" s="154" t="s">
+      <c r="E60" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="154" t="s">
+      <c r="F60" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="G60" s="154" t="s">
+      <c r="G60" s="142" t="s">
         <v>78</v>
       </c>
       <c r="H60" s="107" t="s">
@@ -3488,7 +3494,7 @@
       <c r="Q60" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="R60" s="166">
+      <c r="R60" s="135">
         <f>V36</f>
         <v>655.86</v>
       </c>
@@ -3505,14 +3511,14 @@
     </row>
     <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="105"/>
-      <c r="B61" s="155"/>
+      <c r="B61" s="143"/>
       <c r="C61" s="61" t="s">
         <v>75</v>
       </c>
       <c r="D61" s="109"/>
-      <c r="E61" s="155"/>
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="143"/>
       <c r="H61" s="61" t="s">
         <v>79</v>
       </c>
@@ -3531,7 +3537,7 @@
       <c r="Q61" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="R61" s="166">
+      <c r="R61" s="135">
         <f>V38</f>
         <v>1996.8</v>
       </c>
@@ -4138,7 +4144,7 @@
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
-      <c r="F79" s="133"/>
+      <c r="F79" s="155"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
@@ -4164,7 +4170,7 @@
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
-      <c r="F80" s="133"/>
+      <c r="F80" s="155"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
       <c r="I80" s="18"/>
@@ -4437,25 +4443,15 @@
       <c r="H108" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="J64:K69">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J64:K69">
     <sortCondition ref="J64:J69"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="S58:S59"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="A56:H57"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="O56:P57"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="E34:H34"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A47:D55"/>
@@ -4466,11 +4462,21 @@
     <mergeCell ref="E42:L43"/>
     <mergeCell ref="L44:L47"/>
     <mergeCell ref="K34:L41"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="O56:P57"/>
-    <mergeCell ref="I34:J35"/>
-    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="A56:H57"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="S58:S59"/>
+    <mergeCell ref="R58:R59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
